--- a/QA Challenge.xlsx
+++ b/QA Challenge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,6 @@
     <t>Project: QA Challenge</t>
   </si>
   <si>
-    <t>Author: Suzanne Harman</t>
-  </si>
-  <si>
     <t>Date: October 10, 2014</t>
   </si>
   <si>
@@ -925,6 +922,9 @@
   </si>
   <si>
     <t>Date was not accepted when zero was entered for day or month</t>
+  </si>
+  <si>
+    <t>Author: Suzanne M Harman</t>
   </si>
 </sst>
 </file>
@@ -1737,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1767,7 +1767,7 @@
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1781,7 +1781,7 @@
     </row>
     <row r="3" spans="1:21" ht="18">
       <c r="A3" s="31" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -1790,7 +1790,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18">
@@ -1802,12 +1802,12 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="16">
       <c r="A5" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="7" spans="1:21" ht="20">
       <c r="A7" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1838,7 +1838,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1857,28 +1857,28 @@
     </row>
     <row r="8" spans="1:21" ht="20">
       <c r="A8" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1894,19 +1894,19 @@
     </row>
     <row r="9" spans="1:21" ht="21" thickBot="1">
       <c r="A9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="C9" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="5"/>
@@ -1928,883 +1928,883 @@
         <v>1</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A12" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A13" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A15" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="23"/>
       <c r="J21" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A22" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>65</v>
-      </c>
       <c r="D22" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I22" s="23"/>
       <c r="J22" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I25" s="23"/>
       <c r="J25" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A26" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A27" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I28" s="23"/>
       <c r="J28" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A29" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A30" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A31" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A32" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A33" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="G34" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A35" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A36" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
       <c r="G37" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A39" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="23"/>
       <c r="J39" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A40" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="C40" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="D40" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="G40" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I40" s="23"/>
       <c r="J40" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I41" s="23"/>
       <c r="J41" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I42" s="23"/>
       <c r="J42" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="A43" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>139</v>
-      </c>
       <c r="D43" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
       <c r="G43" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="16" customFormat="1" ht="36" customHeight="1">
